--- a/torzs_out.xlsx
+++ b/torzs_out.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="15">
   <si>
     <t>Sorszám</t>
   </si>
@@ -56,16 +56,10 @@
     <t>PN</t>
   </si>
   <si>
-    <t>Unnamed: 4</t>
-  </si>
-  <si>
     <t>K1</t>
   </si>
   <si>
     <t>PN64-160</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Szilárdsági nyomáspróba</t>
@@ -1202,13 +1196,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1222,21 +1216,18 @@
         <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
       </c>
       <c r="D2">
         <v>50</v>
@@ -1244,10 +1235,7 @@
       <c r="E2">
         <v>63</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2">
+      <c r="F2">
         <v>0.9867</v>
       </c>
     </row>
@@ -1292,7 +1280,7 @@
         <v>56.508</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>60.3</v>
